--- a/_resource/excel/S-属性定义-关系属性-(框架维护,请勿修改).xlsx
+++ b/_resource/excel/S-属性定义-关系属性-(框架维护,请勿修改).xlsx
@@ -27,7 +27,7 @@
     <author>PCC</author>
   </authors>
   <commentList>
-    <comment ref="R4" authorId="0" shapeId="0">
+    <comment ref="S4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="88">
   <si>
     <t>LuaFile(string)</t>
   </si>
@@ -177,9 +177,6 @@
   </si>
   <si>
     <t>MaxValue(string)</t>
-  </si>
-  <si>
-    <t>LogicValue(string)</t>
   </si>
   <si>
     <t>Show(int)</t>
@@ -320,6 +317,18 @@
   </si>
   <si>
     <t>#relationclass</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>数组集合最大容量</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Capacity(string)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>RunParam(string)</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -933,10 +942,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AI13"/>
+  <dimension ref="A1:AJ13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2:N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -952,31 +961,31 @@
     <col min="10" max="11" width="19.375" style="8" customWidth="1"/>
     <col min="12" max="12" width="26" style="8" customWidth="1"/>
     <col min="13" max="13" width="23.75" style="8" customWidth="1"/>
-    <col min="14" max="14" width="12.875" style="8" customWidth="1"/>
-    <col min="15" max="15" width="17.125" style="8" customWidth="1"/>
-    <col min="16" max="17" width="12.875" style="8" customWidth="1"/>
-    <col min="18" max="18" width="17.125" style="8" customWidth="1"/>
-    <col min="19" max="19" width="11" style="8" customWidth="1"/>
-    <col min="20" max="20" width="12.875" style="8" customWidth="1"/>
-    <col min="21" max="21" width="15" style="8" customWidth="1"/>
-    <col min="22" max="22" width="11" style="8" customWidth="1"/>
-    <col min="23" max="23" width="13.75" style="8" customWidth="1"/>
-    <col min="24" max="25" width="17.125" style="8" customWidth="1"/>
-    <col min="26" max="26" width="12.625" style="8" customWidth="1"/>
-    <col min="27" max="27" width="14.875" style="8" customWidth="1"/>
-    <col min="28" max="29" width="11.5" style="8" customWidth="1"/>
-    <col min="30" max="30" width="10.875" style="8" customWidth="1"/>
-    <col min="31" max="31" width="9.375" style="8" customWidth="1"/>
-    <col min="32" max="32" width="17.125" style="8" customWidth="1"/>
-    <col min="33" max="33" width="21.5" style="8" customWidth="1"/>
-    <col min="34" max="34" width="24.875" style="8" customWidth="1"/>
-    <col min="35" max="35" width="28.75" style="8" customWidth="1"/>
+    <col min="14" max="15" width="18.375" style="8" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.125" style="8" customWidth="1"/>
+    <col min="17" max="18" width="12.875" style="8" customWidth="1"/>
+    <col min="19" max="19" width="17.125" style="8" customWidth="1"/>
+    <col min="20" max="20" width="11" style="8" customWidth="1"/>
+    <col min="21" max="21" width="12.875" style="8" customWidth="1"/>
+    <col min="22" max="22" width="15" style="8" customWidth="1"/>
+    <col min="23" max="23" width="11" style="8" customWidth="1"/>
+    <col min="24" max="24" width="13.75" style="8" customWidth="1"/>
+    <col min="25" max="26" width="17.125" style="8" customWidth="1"/>
+    <col min="27" max="27" width="12.625" style="8" customWidth="1"/>
+    <col min="28" max="28" width="14.875" style="8" customWidth="1"/>
+    <col min="29" max="30" width="11.5" style="8" customWidth="1"/>
+    <col min="31" max="31" width="10.875" style="8" customWidth="1"/>
+    <col min="32" max="32" width="9.375" style="8" customWidth="1"/>
+    <col min="33" max="33" width="17.125" style="8" customWidth="1"/>
+    <col min="34" max="34" width="21.5" style="8" customWidth="1"/>
+    <col min="35" max="35" width="24.875" style="8" customWidth="1"/>
+    <col min="36" max="36" width="28.75" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A1" s="10"/>
       <c r="B1" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C1" s="10"/>
       <c r="D1" s="10"/>
@@ -1010,9 +1019,10 @@
       <c r="AF1" s="10"/>
       <c r="AG1" s="10"/>
       <c r="AH1" s="10"/>
-      <c r="AI1" s="1"/>
+      <c r="AI1" s="10"/>
+      <c r="AJ1" s="1"/>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A2" s="9"/>
       <c r="B2" s="9" t="s">
         <v>1</v>
@@ -1021,7 +1031,7 @@
         <v>2</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>3</v>
@@ -1036,7 +1046,7 @@
         <v>6</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J2" s="9" t="s">
         <v>7</v>
@@ -1050,74 +1060,77 @@
       <c r="M2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="N2" s="9" t="s">
+      <c r="N2" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="O2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="O2" s="9" t="s">
-        <v>69</v>
-      </c>
       <c r="P2" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="Q2" s="9" t="s">
+      <c r="R2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="R2" s="9" t="s">
+      <c r="S2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="S2" s="9" t="s">
+      <c r="T2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="T2" s="9" t="s">
+      <c r="U2" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="U2" s="9" t="s">
+      <c r="V2" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="V2" s="9" t="s">
+      <c r="W2" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="W2" s="9" t="s">
+      <c r="X2" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="X2" s="9" t="s">
+      <c r="Y2" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="Y2" s="9" t="s">
+      <c r="Z2" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="Z2" s="9" t="s">
-        <v>83</v>
-      </c>
       <c r="AA2" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="AB2" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="AB2" s="9" t="s">
+      <c r="AC2" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="AC2" s="9" t="s">
+      <c r="AD2" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="AD2" s="9" t="s">
+      <c r="AE2" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="AE2" s="9" t="s">
+      <c r="AF2" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="AF2" s="9" t="s">
+      <c r="AG2" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="AG2" s="9" t="s">
+      <c r="AH2" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="AH2" s="9" t="s">
+      <c r="AI2" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="AI2" s="2" t="s">
+      <c r="AJ2" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A3" s="11">
         <v>0</v>
       </c>
@@ -1157,7 +1170,7 @@
       <c r="M3" s="11">
         <v>3</v>
       </c>
-      <c r="N3" s="11">
+      <c r="N3" s="3">
         <v>3</v>
       </c>
       <c r="O3" s="11">
@@ -1167,13 +1180,13 @@
         <v>3</v>
       </c>
       <c r="Q3" s="11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R3" s="11">
         <v>1</v>
       </c>
       <c r="S3" s="11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T3" s="11">
         <v>3</v>
@@ -1185,7 +1198,7 @@
         <v>3</v>
       </c>
       <c r="W3" s="11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X3" s="11">
         <v>1</v>
@@ -1194,7 +1207,7 @@
         <v>1</v>
       </c>
       <c r="Z3" s="11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AA3" s="11">
         <v>3</v>
@@ -1220,22 +1233,25 @@
       <c r="AH3" s="11">
         <v>3</v>
       </c>
-      <c r="AI3" s="3">
+      <c r="AI3" s="11">
+        <v>3</v>
+      </c>
+      <c r="AJ3" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A4" s="12" t="s">
         <v>28</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>29</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>30</v>
@@ -1264,95 +1280,98 @@
       <c r="M4" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="N4" s="12" t="s">
+      <c r="N4" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="P4" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="O4" s="12" t="s">
+      <c r="Q4" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="P4" s="12" t="s">
+      <c r="R4" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="Q4" s="12" t="s">
+      <c r="S4" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="R4" s="12" t="s">
+      <c r="T4" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="S4" s="12" t="s">
+      <c r="U4" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="T4" s="12" t="s">
+      <c r="V4" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="U4" s="12" t="s">
+      <c r="W4" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="V4" s="12" t="s">
+      <c r="X4" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="W4" s="12" t="s">
+      <c r="Y4" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="X4" s="12" t="s">
+      <c r="Z4" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="Y4" s="12" t="s">
+      <c r="AA4" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB4" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="Z4" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="AA4" s="12" t="s">
+      <c r="AC4" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="AD4" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="AB4" s="12" t="s">
+      <c r="AE4" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="AF4" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG4" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="AH4" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI4" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ4" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:36" x14ac:dyDescent="0.15">
+      <c r="A5" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="AC4" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="AD4" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="AE4" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF4" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="AG4" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="AH4" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="AI4" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A5" s="13" t="s">
+      <c r="B5" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" s="13" t="s">
         <v>73</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>74</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H5" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I5" s="13"/>
       <c r="J5" s="13"/>
@@ -1360,9 +1379,7 @@
       <c r="L5" s="13"/>
       <c r="M5" s="13"/>
       <c r="N5" s="13"/>
-      <c r="O5" s="13">
-        <v>0</v>
-      </c>
+      <c r="O5" s="13"/>
       <c r="P5" s="13">
         <v>0</v>
       </c>
@@ -1376,11 +1393,11 @@
         <v>0</v>
       </c>
       <c r="T5" s="13">
+        <v>0</v>
+      </c>
+      <c r="U5" s="13">
         <v>1</v>
       </c>
-      <c r="U5" s="13">
-        <v>0</v>
-      </c>
       <c r="V5" s="13">
         <v>0</v>
       </c>
@@ -1408,34 +1425,37 @@
       <c r="AD5" s="13">
         <v>0</v>
       </c>
-      <c r="AE5" s="13"/>
+      <c r="AE5" s="13">
+        <v>0</v>
+      </c>
       <c r="AF5" s="13"/>
       <c r="AG5" s="13"/>
       <c r="AH5" s="13"/>
-      <c r="AI5" s="5"/>
+      <c r="AI5" s="13"/>
+      <c r="AJ5" s="5"/>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A6" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" s="13" t="s">
         <v>76</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>77</v>
       </c>
       <c r="D6" s="13"/>
       <c r="E6" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I6" s="13"/>
       <c r="J6" s="13"/>
@@ -1443,9 +1463,7 @@
       <c r="L6" s="13"/>
       <c r="M6" s="13"/>
       <c r="N6" s="13"/>
-      <c r="O6" s="13">
-        <v>0</v>
-      </c>
+      <c r="O6" s="13"/>
       <c r="P6" s="13">
         <v>0</v>
       </c>
@@ -1459,11 +1477,11 @@
         <v>0</v>
       </c>
       <c r="T6" s="13">
+        <v>0</v>
+      </c>
+      <c r="U6" s="13">
         <v>1</v>
       </c>
-      <c r="U6" s="13">
-        <v>0</v>
-      </c>
       <c r="V6" s="13">
         <v>0</v>
       </c>
@@ -1491,25 +1509,28 @@
       <c r="AD6" s="13">
         <v>0</v>
       </c>
-      <c r="AE6" s="13"/>
+      <c r="AE6" s="13">
+        <v>0</v>
+      </c>
       <c r="AF6" s="13"/>
       <c r="AG6" s="13"/>
       <c r="AH6" s="13"/>
-      <c r="AI6" s="5"/>
+      <c r="AI6" s="13"/>
+      <c r="AJ6" s="5"/>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A7" s="16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D7" s="16"/>
       <c r="E7" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F7" s="16"/>
       <c r="G7" s="16"/>
@@ -1520,9 +1541,7 @@
       <c r="L7" s="16"/>
       <c r="M7" s="16"/>
       <c r="N7" s="16"/>
-      <c r="O7" s="16">
-        <v>0</v>
-      </c>
+      <c r="O7" s="16"/>
       <c r="P7" s="16">
         <v>0</v>
       </c>
@@ -1536,11 +1555,11 @@
         <v>0</v>
       </c>
       <c r="T7" s="16">
+        <v>0</v>
+      </c>
+      <c r="U7" s="16">
         <v>1</v>
       </c>
-      <c r="U7" s="16">
-        <v>0</v>
-      </c>
       <c r="V7" s="16">
         <v>0</v>
       </c>
@@ -1568,31 +1587,34 @@
       <c r="AD7" s="16">
         <v>0</v>
       </c>
-      <c r="AE7" s="16"/>
+      <c r="AE7" s="16">
+        <v>0</v>
+      </c>
       <c r="AF7" s="16"/>
       <c r="AG7" s="16"/>
       <c r="AH7" s="16"/>
-      <c r="AI7" s="7"/>
+      <c r="AI7" s="16"/>
+      <c r="AJ7" s="7"/>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A8" s="17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D8" s="17"/>
       <c r="E8" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="F8" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="F8" s="17" t="s">
+      <c r="G8" s="17" t="s">
         <v>59</v>
-      </c>
-      <c r="G8" s="17" t="s">
-        <v>60</v>
       </c>
       <c r="H8" s="17"/>
       <c r="I8" s="17"/>
@@ -1601,9 +1623,7 @@
       <c r="L8" s="17"/>
       <c r="M8" s="17"/>
       <c r="N8" s="17"/>
-      <c r="O8" s="17">
-        <v>0</v>
-      </c>
+      <c r="O8" s="17"/>
       <c r="P8" s="17">
         <v>0</v>
       </c>
@@ -1617,19 +1637,21 @@
         <v>0</v>
       </c>
       <c r="T8" s="17">
+        <v>0</v>
+      </c>
+      <c r="U8" s="17">
         <v>1</v>
       </c>
-      <c r="U8" s="17">
-        <v>0</v>
-      </c>
-      <c r="V8" s="17"/>
-      <c r="W8" s="17">
-        <v>0</v>
-      </c>
+      <c r="V8" s="17">
+        <v>0</v>
+      </c>
+      <c r="W8" s="17"/>
       <c r="X8" s="17">
         <v>0</v>
       </c>
-      <c r="Y8" s="17"/>
+      <c r="Y8" s="17">
+        <v>0</v>
+      </c>
       <c r="Z8" s="17"/>
       <c r="AA8" s="17"/>
       <c r="AB8" s="17"/>
@@ -1639,21 +1661,22 @@
       <c r="AF8" s="17"/>
       <c r="AG8" s="17"/>
       <c r="AH8" s="17"/>
-      <c r="AI8" s="7"/>
+      <c r="AI8" s="17"/>
+      <c r="AJ8" s="7"/>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A9" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D9" s="16"/>
       <c r="E9" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F9" s="16"/>
       <c r="G9" s="16"/>
@@ -1664,9 +1687,7 @@
       <c r="L9" s="16"/>
       <c r="M9" s="16"/>
       <c r="N9" s="16"/>
-      <c r="O9" s="16">
-        <v>0</v>
-      </c>
+      <c r="O9" s="16"/>
       <c r="P9" s="16">
         <v>0</v>
       </c>
@@ -1680,11 +1701,11 @@
         <v>0</v>
       </c>
       <c r="T9" s="16">
+        <v>0</v>
+      </c>
+      <c r="U9" s="16">
         <v>1</v>
       </c>
-      <c r="U9" s="16">
-        <v>0</v>
-      </c>
       <c r="V9" s="16">
         <v>0</v>
       </c>
@@ -1712,25 +1733,28 @@
       <c r="AD9" s="16">
         <v>0</v>
       </c>
-      <c r="AE9" s="16"/>
+      <c r="AE9" s="16">
+        <v>0</v>
+      </c>
       <c r="AF9" s="16"/>
       <c r="AG9" s="16"/>
       <c r="AH9" s="16"/>
-      <c r="AI9" s="7"/>
+      <c r="AI9" s="16"/>
+      <c r="AJ9" s="7"/>
     </row>
-    <row r="10" spans="1:35" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:36" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D10" s="14"/>
       <c r="E10" s="14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F10" s="14"/>
       <c r="G10" s="14"/>
@@ -1741,9 +1765,7 @@
       <c r="L10" s="14"/>
       <c r="M10" s="14"/>
       <c r="N10" s="14"/>
-      <c r="O10" s="14">
-        <v>0</v>
-      </c>
+      <c r="O10" s="14"/>
       <c r="P10" s="14">
         <v>0</v>
       </c>
@@ -1757,11 +1779,11 @@
         <v>0</v>
       </c>
       <c r="T10" s="14">
+        <v>0</v>
+      </c>
+      <c r="U10" s="14">
         <v>1</v>
       </c>
-      <c r="U10" s="14">
-        <v>0</v>
-      </c>
       <c r="V10" s="14">
         <v>0</v>
       </c>
@@ -1789,31 +1811,34 @@
       <c r="AD10" s="14">
         <v>0</v>
       </c>
-      <c r="AE10" s="14"/>
+      <c r="AE10" s="14">
+        <v>0</v>
+      </c>
       <c r="AF10" s="14"/>
       <c r="AG10" s="14"/>
       <c r="AH10" s="14"/>
-      <c r="AI10" s="6"/>
+      <c r="AI10" s="14"/>
+      <c r="AJ10" s="6"/>
     </row>
-    <row r="11" spans="1:35" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:36" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D11" s="15"/>
       <c r="E11" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="F11" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="F11" s="15" t="s">
+      <c r="G11" s="15" t="s">
         <v>59</v>
-      </c>
-      <c r="G11" s="15" t="s">
-        <v>60</v>
       </c>
       <c r="H11" s="15"/>
       <c r="I11" s="15"/>
@@ -1822,9 +1847,7 @@
       <c r="L11" s="15"/>
       <c r="M11" s="15"/>
       <c r="N11" s="15"/>
-      <c r="O11" s="15">
-        <v>0</v>
-      </c>
+      <c r="O11" s="15"/>
       <c r="P11" s="15">
         <v>0</v>
       </c>
@@ -1838,19 +1861,21 @@
         <v>0</v>
       </c>
       <c r="T11" s="15">
+        <v>0</v>
+      </c>
+      <c r="U11" s="15">
         <v>1</v>
       </c>
-      <c r="U11" s="15">
-        <v>0</v>
-      </c>
-      <c r="V11" s="15"/>
-      <c r="W11" s="15">
-        <v>0</v>
-      </c>
+      <c r="V11" s="15">
+        <v>0</v>
+      </c>
+      <c r="W11" s="15"/>
       <c r="X11" s="15">
         <v>0</v>
       </c>
-      <c r="Y11" s="15"/>
+      <c r="Y11" s="15">
+        <v>0</v>
+      </c>
       <c r="Z11" s="15"/>
       <c r="AA11" s="15"/>
       <c r="AB11" s="15"/>
@@ -1860,21 +1885,22 @@
       <c r="AF11" s="15"/>
       <c r="AG11" s="15"/>
       <c r="AH11" s="15"/>
-      <c r="AI11" s="6"/>
+      <c r="AI11" s="15"/>
+      <c r="AJ11" s="6"/>
     </row>
-    <row r="12" spans="1:35" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:36" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D12" s="14"/>
       <c r="E12" s="14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F12" s="14"/>
       <c r="G12" s="14"/>
@@ -1885,9 +1911,7 @@
       <c r="L12" s="14"/>
       <c r="M12" s="14"/>
       <c r="N12" s="14"/>
-      <c r="O12" s="14">
-        <v>0</v>
-      </c>
+      <c r="O12" s="14"/>
       <c r="P12" s="14">
         <v>0</v>
       </c>
@@ -1901,11 +1925,11 @@
         <v>0</v>
       </c>
       <c r="T12" s="14">
+        <v>0</v>
+      </c>
+      <c r="U12" s="14">
         <v>1</v>
       </c>
-      <c r="U12" s="14">
-        <v>0</v>
-      </c>
       <c r="V12" s="14">
         <v>0</v>
       </c>
@@ -1933,25 +1957,28 @@
       <c r="AD12" s="14">
         <v>0</v>
       </c>
-      <c r="AE12" s="14"/>
+      <c r="AE12" s="14">
+        <v>0</v>
+      </c>
       <c r="AF12" s="14"/>
       <c r="AG12" s="14"/>
       <c r="AH12" s="14"/>
-      <c r="AI12" s="6"/>
+      <c r="AI12" s="14"/>
+      <c r="AJ12" s="6"/>
     </row>
-    <row r="13" spans="1:35" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:36" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="C13" s="14" t="s">
         <v>81</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>82</v>
       </c>
       <c r="D13" s="14"/>
       <c r="E13" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F13" s="14"/>
       <c r="G13" s="14"/>
@@ -1962,9 +1989,7 @@
       <c r="L13" s="14"/>
       <c r="M13" s="14"/>
       <c r="N13" s="14"/>
-      <c r="O13" s="14">
-        <v>0</v>
-      </c>
+      <c r="O13" s="14"/>
       <c r="P13" s="14">
         <v>0</v>
       </c>
@@ -1978,11 +2003,11 @@
         <v>0</v>
       </c>
       <c r="T13" s="14">
+        <v>0</v>
+      </c>
+      <c r="U13" s="14">
         <v>1</v>
       </c>
-      <c r="U13" s="14">
-        <v>0</v>
-      </c>
       <c r="V13" s="14">
         <v>0</v>
       </c>
@@ -2010,11 +2035,14 @@
       <c r="AD13" s="14">
         <v>0</v>
       </c>
-      <c r="AE13" s="14"/>
+      <c r="AE13" s="14">
+        <v>0</v>
+      </c>
       <c r="AF13" s="14"/>
       <c r="AG13" s="14"/>
       <c r="AH13" s="14"/>
-      <c r="AI13" s="6"/>
+      <c r="AI13" s="14"/>
+      <c r="AJ13" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
